--- a/document/外部設計書.xlsx
+++ b/document/外部設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dubianguibo/Desktop/tmp/名称未設定フォルダ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858F9592-4A37-C948-9EA5-B1956026E34B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEC7FB0-9B5E-AE4A-8808-6228922EC4A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" firstSheet="5" activeTab="8" xr2:uid="{51FB3839-BA3E-1C47-A750-E4488B77C3F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="8" xr2:uid="{51FB3839-BA3E-1C47-A750-E4488B77C3F4}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="出欠ボード_出欠削除ボタン押下時" sheetId="5" r:id="rId5"/>
     <sheet name="出欠ボード作成" sheetId="6" r:id="rId6"/>
     <sheet name="出欠ボード編集" sheetId="7" r:id="rId7"/>
-    <sheet name="テーブル処理一覧" sheetId="8" r:id="rId8"/>
+    <sheet name="テーブル処理一覧・ルーティング" sheetId="8" r:id="rId8"/>
     <sheet name="画面遷移図・画面定義一覧" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>画面名</t>
     <phoneticPr fontId="1"/>
@@ -519,6 +519,38 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/create/new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/create/edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -674,14 +706,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -692,9 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -704,7 +730,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,18 +752,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18730,261 +18756,261 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="21">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="42">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="63">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="42">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="42">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="42">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="42">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="42">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="42">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="84">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="147">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="105">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19006,7 +19032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7443AB-8AD8-A141-907A-879C34C7A2A6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>
@@ -19094,251 +19122,278 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA7E55E-5013-7D4E-9C0D-0775DFD1A3EE}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="K4" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="126">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:11" ht="126">
+      <c r="A5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="6" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>67</v>
+    <row r="6" spans="1:11">
+      <c r="A6" s="17" t="s">
+        <v>81</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="84">
+      <c r="A8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="18"/>
-      <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="84">
-      <c r="A8" s="18"/>
-      <c r="B8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="6" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="63">
-      <c r="A9" s="19"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:11" ht="63">
+      <c r="A9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="5" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A6:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="F1:J1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
